--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1506.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1506.xlsx
@@ -354,7 +354,7 @@
         <v>2.465322773740105</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.262865016033435</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1506.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1506.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.569579757363065</v>
+        <v>1.141279578208923</v>
       </c>
       <c r="B1">
-        <v>2.465322773740105</v>
+        <v>1.77022397518158</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.977267980575562</v>
       </c>
       <c r="D1">
-        <v>1.262865016033435</v>
+        <v>2.755751132965088</v>
       </c>
       <c r="E1">
-        <v>0.6627099979837686</v>
+        <v>0.2947202026844025</v>
       </c>
     </row>
   </sheetData>
